--- a/Điều hòa/data.xlsx
+++ b/Điều hòa/data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Năm 4_ Kì 1\Các hệ thống dựa trên tri thức\Chatbot-sua-chua-do-dien-lanh\Điều hòa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chatbot sửa chữa đồ điện lạnh\Điều hòa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186F98A6-CA7E-445B-92B2-E6D041EB6F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Câu hỏi" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="Câu trả lời" sheetId="4" r:id="rId4"/>
     <sheet name="Triệu chứng" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1371,7 +1370,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1899,7 +1898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2007,7 +2006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -7489,7 +7488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -7712,13 +7711,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M74" sqref="M74"/>
     </sheetView>
   </sheetViews>
@@ -9494,13 +9493,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Điều hòa/data.xlsx
+++ b/Điều hòa/data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2416" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2428" uniqueCount="457">
   <si>
     <t>Dấu hiệu</t>
   </si>
@@ -407,6 +407,9 @@
     <t>điều hòa chạy liên tục</t>
   </si>
   <si>
+    <t>điều hòa chạy không ngừng</t>
+  </si>
+  <si>
     <t>điều hòa chạy liên tục không ngừng</t>
   </si>
   <si>
@@ -419,6 +422,9 @@
     <t>điều hòa hoạt động không ngừng</t>
   </si>
   <si>
+    <t>điều hòa hoạt động liên tục không ngừng</t>
+  </si>
+  <si>
     <t>điều hòa không tự ngắt khi đạt đến nhiệt độ</t>
   </si>
   <si>
@@ -641,6 +647,12 @@
     <t>nhiệt độ điều hòa lúc lạnh, lúc nóng</t>
   </si>
   <si>
+    <t>điều hòa không mát</t>
+  </si>
+  <si>
+    <t>điều hòa không thấy mát</t>
+  </si>
+  <si>
     <t>điều hòa không lạnh</t>
   </si>
   <si>
@@ -984,6 +996,12 @@
   </si>
   <si>
     <t>ống đồng ổn</t>
+  </si>
+  <si>
+    <t>ống đồng rỉ nước</t>
+  </si>
+  <si>
+    <t>ống đồng rò nước</t>
   </si>
   <si>
     <t>ống đồng đóng tuyết</t>
@@ -1975,90 +1993,90 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="22" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="22" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="22" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="22" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="22" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="22" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="22" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="22" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="22" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="22" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21">
       <c r="A11" s="22" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -2092,37 +2110,37 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33.75">
       <c r="A1" s="16" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
@@ -2157,7 +2175,7 @@
         <v>115</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
@@ -2192,7 +2210,7 @@
         <v>115</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
@@ -2203,7 +2221,7 @@
         <v>26</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>51</v>
@@ -2227,7 +2245,7 @@
         <v>115</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
@@ -2262,7 +2280,7 @@
         <v>115</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
@@ -2297,7 +2315,7 @@
         <v>115</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
@@ -2308,7 +2326,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>51</v>
@@ -2332,7 +2350,7 @@
         <v>115</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
@@ -2367,7 +2385,7 @@
         <v>115</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
@@ -2402,7 +2420,7 @@
         <v>115</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
@@ -2413,7 +2431,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>51</v>
@@ -2437,7 +2455,7 @@
         <v>115</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
@@ -2472,7 +2490,7 @@
         <v>115</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
@@ -2480,7 +2498,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>43</v>
@@ -2507,7 +2525,7 @@
         <v>115</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
@@ -2542,7 +2560,7 @@
         <v>115</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
@@ -2550,7 +2568,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>43</v>
@@ -2577,7 +2595,7 @@
         <v>115</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
@@ -2612,7 +2630,7 @@
         <v>115</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
@@ -2620,7 +2638,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>49</v>
@@ -2647,7 +2665,7 @@
         <v>115</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
@@ -2682,7 +2700,7 @@
         <v>115</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="15.6">
@@ -2690,7 +2708,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>49</v>
@@ -2717,7 +2735,7 @@
         <v>115</v>
       </c>
       <c r="K18" s="20" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
@@ -2752,7 +2770,7 @@
         <v>115</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
@@ -2760,7 +2778,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>43</v>
@@ -2787,7 +2805,7 @@
         <v>115</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
@@ -2822,7 +2840,7 @@
         <v>115</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
@@ -2830,7 +2848,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>43</v>
@@ -2857,7 +2875,7 @@
         <v>115</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
@@ -2892,7 +2910,7 @@
         <v>115</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="15.6">
@@ -2900,7 +2918,7 @@
         <v>13</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>49</v>
@@ -2927,7 +2945,7 @@
         <v>115</v>
       </c>
       <c r="K24" s="20" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
@@ -2962,7 +2980,7 @@
         <v>115</v>
       </c>
       <c r="K25" s="18" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="15.6">
@@ -2970,7 +2988,7 @@
         <v>13</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>49</v>
@@ -2997,7 +3015,7 @@
         <v>115</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
@@ -3032,7 +3050,7 @@
         <v>115</v>
       </c>
       <c r="K27" s="18" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
@@ -3067,7 +3085,7 @@
         <v>115</v>
       </c>
       <c r="K28" s="18" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
@@ -3090,7 +3108,7 @@
         <v>76</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="H29" s="16" t="s">
         <v>105</v>
@@ -3102,7 +3120,7 @@
         <v>115</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
@@ -3137,7 +3155,7 @@
         <v>115</v>
       </c>
       <c r="K30" s="18" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
@@ -3172,7 +3190,7 @@
         <v>115</v>
       </c>
       <c r="K31" s="18" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
@@ -3195,7 +3213,7 @@
         <v>76</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="H32" s="16" t="s">
         <v>105</v>
@@ -3207,7 +3225,7 @@
         <v>115</v>
       </c>
       <c r="K32" s="18" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
@@ -3242,7 +3260,7 @@
         <v>115</v>
       </c>
       <c r="K33" s="18" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
@@ -3265,7 +3283,7 @@
         <v>76</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="H34" s="16" t="s">
         <v>105</v>
@@ -3277,7 +3295,7 @@
         <v>115</v>
       </c>
       <c r="K34" s="18" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
@@ -3300,7 +3318,7 @@
         <v>76</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="H35" s="16" t="s">
         <v>105</v>
@@ -3312,7 +3330,7 @@
         <v>115</v>
       </c>
       <c r="K35" s="18" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
@@ -3335,7 +3353,7 @@
         <v>76</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="H36" s="16" t="s">
         <v>105</v>
@@ -3347,7 +3365,7 @@
         <v>115</v>
       </c>
       <c r="K36" s="18" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
@@ -3382,7 +3400,7 @@
         <v>115</v>
       </c>
       <c r="K37" s="18" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
@@ -3417,7 +3435,7 @@
         <v>115</v>
       </c>
       <c r="K38" s="18" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
@@ -3440,7 +3458,7 @@
         <v>76</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="H39" s="16" t="s">
         <v>105</v>
@@ -3452,7 +3470,7 @@
         <v>115</v>
       </c>
       <c r="K39" s="18" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
@@ -3487,7 +3505,7 @@
         <v>115</v>
       </c>
       <c r="K40" s="18" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
@@ -3522,7 +3540,7 @@
         <v>115</v>
       </c>
       <c r="K41" s="18" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
@@ -3545,7 +3563,7 @@
         <v>76</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="H42" s="16" t="s">
         <v>105</v>
@@ -3557,7 +3575,7 @@
         <v>115</v>
       </c>
       <c r="K42" s="18" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
@@ -3592,7 +3610,7 @@
         <v>115</v>
       </c>
       <c r="K43" s="18" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
@@ -3615,7 +3633,7 @@
         <v>76</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="H44" s="16" t="s">
         <v>105</v>
@@ -3627,7 +3645,7 @@
         <v>115</v>
       </c>
       <c r="K44" s="18" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
@@ -3650,7 +3668,7 @@
         <v>76</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="H45" s="16" t="s">
         <v>105</v>
@@ -3662,7 +3680,7 @@
         <v>115</v>
       </c>
       <c r="K45" s="18" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
@@ -3685,7 +3703,7 @@
         <v>76</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="H46" s="16" t="s">
         <v>105</v>
@@ -3697,7 +3715,7 @@
         <v>115</v>
       </c>
       <c r="K46" s="18" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
@@ -3732,7 +3750,7 @@
         <v>115</v>
       </c>
       <c r="K47" s="18" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
@@ -3767,7 +3785,7 @@
         <v>115</v>
       </c>
       <c r="K48" s="18" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
@@ -3790,7 +3808,7 @@
         <v>76</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="H49" s="16" t="s">
         <v>105</v>
@@ -3802,7 +3820,7 @@
         <v>115</v>
       </c>
       <c r="K49" s="18" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
@@ -3837,7 +3855,7 @@
         <v>115</v>
       </c>
       <c r="K50" s="18" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
@@ -3872,7 +3890,7 @@
         <v>115</v>
       </c>
       <c r="K51" s="18" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
@@ -3895,7 +3913,7 @@
         <v>76</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="H52" s="16" t="s">
         <v>105</v>
@@ -3907,7 +3925,7 @@
         <v>115</v>
       </c>
       <c r="K52" s="18" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
@@ -3942,7 +3960,7 @@
         <v>115</v>
       </c>
       <c r="K53" s="18" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
@@ -3965,7 +3983,7 @@
         <v>76</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="H54" s="16" t="s">
         <v>105</v>
@@ -3977,7 +3995,7 @@
         <v>115</v>
       </c>
       <c r="K54" s="18" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
@@ -4000,7 +4018,7 @@
         <v>76</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="H55" s="16" t="s">
         <v>105</v>
@@ -4012,7 +4030,7 @@
         <v>115</v>
       </c>
       <c r="K55" s="18" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
@@ -4035,7 +4053,7 @@
         <v>76</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="H56" s="16" t="s">
         <v>105</v>
@@ -4047,7 +4065,7 @@
         <v>115</v>
       </c>
       <c r="K56" s="18" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
@@ -4082,7 +4100,7 @@
         <v>115</v>
       </c>
       <c r="K57" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
@@ -4096,7 +4114,7 @@
         <v>37</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="E58" s="16" t="s">
         <v>62</v>
@@ -4117,7 +4135,7 @@
         <v>115</v>
       </c>
       <c r="K58" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
@@ -4152,7 +4170,7 @@
         <v>115</v>
       </c>
       <c r="K59" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
@@ -4166,7 +4184,7 @@
         <v>37</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>62</v>
@@ -4187,7 +4205,7 @@
         <v>115</v>
       </c>
       <c r="K60" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
@@ -4201,7 +4219,7 @@
         <v>37</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="E61" s="16" t="s">
         <v>62</v>
@@ -4222,7 +4240,7 @@
         <v>115</v>
       </c>
       <c r="K61" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
@@ -4257,7 +4275,7 @@
         <v>115</v>
       </c>
       <c r="K62" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
@@ -4271,7 +4289,7 @@
         <v>40</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="E63" s="16" t="s">
         <v>62</v>
@@ -4292,7 +4310,7 @@
         <v>115</v>
       </c>
       <c r="K63" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
@@ -4327,7 +4345,7 @@
         <v>115</v>
       </c>
       <c r="K64" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
@@ -4341,7 +4359,7 @@
         <v>40</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="E65" s="16" t="s">
         <v>62</v>
@@ -4362,7 +4380,7 @@
         <v>115</v>
       </c>
       <c r="K65" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
@@ -4376,7 +4394,7 @@
         <v>40</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="E66" s="16" t="s">
         <v>62</v>
@@ -4397,7 +4415,7 @@
         <v>115</v>
       </c>
       <c r="K66" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
@@ -4432,7 +4450,7 @@
         <v>115</v>
       </c>
       <c r="K67" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
@@ -4446,7 +4464,7 @@
         <v>37</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="E68" s="16" t="s">
         <v>62</v>
@@ -4467,7 +4485,7 @@
         <v>115</v>
       </c>
       <c r="K68" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
@@ -4502,7 +4520,7 @@
         <v>115</v>
       </c>
       <c r="K69" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
@@ -4516,7 +4534,7 @@
         <v>37</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="E70" s="16" t="s">
         <v>62</v>
@@ -4537,7 +4555,7 @@
         <v>115</v>
       </c>
       <c r="K70" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
@@ -4551,7 +4569,7 @@
         <v>37</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="E71" s="16" t="s">
         <v>62</v>
@@ -4572,7 +4590,7 @@
         <v>115</v>
       </c>
       <c r="K71" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
@@ -4607,7 +4625,7 @@
         <v>115</v>
       </c>
       <c r="K72" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
@@ -4621,7 +4639,7 @@
         <v>40</v>
       </c>
       <c r="D73" s="16" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="E73" s="16" t="s">
         <v>62</v>
@@ -4642,7 +4660,7 @@
         <v>115</v>
       </c>
       <c r="K73" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
@@ -4677,7 +4695,7 @@
         <v>115</v>
       </c>
       <c r="K74" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
@@ -4691,7 +4709,7 @@
         <v>40</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="E75" s="16" t="s">
         <v>62</v>
@@ -4712,7 +4730,7 @@
         <v>115</v>
       </c>
       <c r="K75" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5">
@@ -4726,7 +4744,7 @@
         <v>40</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="E76" s="16" t="s">
         <v>62</v>
@@ -4747,7 +4765,7 @@
         <v>115</v>
       </c>
       <c r="K76" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5">
@@ -4782,7 +4800,7 @@
         <v>115</v>
       </c>
       <c r="K77" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5">
@@ -4817,7 +4835,7 @@
         <v>118</v>
       </c>
       <c r="K78" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5">
@@ -4852,7 +4870,7 @@
         <v>115</v>
       </c>
       <c r="K79" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5">
@@ -4866,7 +4884,7 @@
         <v>37</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="E80" s="16" t="s">
         <v>62</v>
@@ -4887,7 +4905,7 @@
         <v>115</v>
       </c>
       <c r="K80" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5">
@@ -4922,7 +4940,7 @@
         <v>115</v>
       </c>
       <c r="K81" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5">
@@ -4936,7 +4954,7 @@
         <v>37</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="E82" s="16" t="s">
         <v>62</v>
@@ -4957,7 +4975,7 @@
         <v>115</v>
       </c>
       <c r="K82" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5">
@@ -4971,7 +4989,7 @@
         <v>37</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="E83" s="16" t="s">
         <v>62</v>
@@ -4992,7 +5010,7 @@
         <v>115</v>
       </c>
       <c r="K83" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5">
@@ -5027,7 +5045,7 @@
         <v>115</v>
       </c>
       <c r="K84" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5">
@@ -5062,7 +5080,7 @@
         <v>115</v>
       </c>
       <c r="K85" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5">
@@ -5076,7 +5094,7 @@
         <v>40</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="E86" s="16" t="s">
         <v>62</v>
@@ -5097,7 +5115,7 @@
         <v>115</v>
       </c>
       <c r="K86" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5">
@@ -5132,7 +5150,7 @@
         <v>115</v>
       </c>
       <c r="K87" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5">
@@ -5146,7 +5164,7 @@
         <v>40</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="E88" s="16" t="s">
         <v>62</v>
@@ -5167,7 +5185,7 @@
         <v>115</v>
       </c>
       <c r="K88" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5">
@@ -5181,7 +5199,7 @@
         <v>40</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="E89" s="16" t="s">
         <v>62</v>
@@ -5202,7 +5220,7 @@
         <v>115</v>
       </c>
       <c r="K89" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5">
@@ -5237,7 +5255,7 @@
         <v>118</v>
       </c>
       <c r="K90" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5">
@@ -5251,7 +5269,7 @@
         <v>37</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="E91" s="16" t="s">
         <v>62</v>
@@ -5272,7 +5290,7 @@
         <v>118</v>
       </c>
       <c r="K91" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
@@ -5307,7 +5325,7 @@
         <v>118</v>
       </c>
       <c r="K92" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5">
@@ -5321,7 +5339,7 @@
         <v>37</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="E93" s="16" t="s">
         <v>62</v>
@@ -5342,7 +5360,7 @@
         <v>118</v>
       </c>
       <c r="K93" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5">
@@ -5356,7 +5374,7 @@
         <v>37</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="E94" s="16" t="s">
         <v>62</v>
@@ -5377,7 +5395,7 @@
         <v>118</v>
       </c>
       <c r="K94" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5">
@@ -5412,7 +5430,7 @@
         <v>118</v>
       </c>
       <c r="K95" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5">
@@ -5447,7 +5465,7 @@
         <v>118</v>
       </c>
       <c r="K96" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5">
@@ -5461,7 +5479,7 @@
         <v>40</v>
       </c>
       <c r="D97" s="16" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="E97" s="16" t="s">
         <v>62</v>
@@ -5482,7 +5500,7 @@
         <v>118</v>
       </c>
       <c r="K97" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5">
@@ -5517,7 +5535,7 @@
         <v>118</v>
       </c>
       <c r="K98" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5">
@@ -5531,7 +5549,7 @@
         <v>40</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="E99" s="16" t="s">
         <v>62</v>
@@ -5552,7 +5570,7 @@
         <v>118</v>
       </c>
       <c r="K99" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5">
@@ -5566,7 +5584,7 @@
         <v>40</v>
       </c>
       <c r="D100" s="16" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="E100" s="16" t="s">
         <v>62</v>
@@ -5587,7 +5605,7 @@
         <v>118</v>
       </c>
       <c r="K100" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5">
@@ -5622,7 +5640,7 @@
         <v>115</v>
       </c>
       <c r="K101" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5">
@@ -5657,7 +5675,7 @@
         <v>115</v>
       </c>
       <c r="K102" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5">
@@ -5671,7 +5689,7 @@
         <v>37</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="E103" s="16" t="s">
         <v>62</v>
@@ -5692,7 +5710,7 @@
         <v>115</v>
       </c>
       <c r="K103" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="19.5">
@@ -5727,7 +5745,7 @@
         <v>115</v>
       </c>
       <c r="K104" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="19.5">
@@ -5741,7 +5759,7 @@
         <v>37</v>
       </c>
       <c r="D105" s="16" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="E105" s="16" t="s">
         <v>62</v>
@@ -5762,7 +5780,7 @@
         <v>115</v>
       </c>
       <c r="K105" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="19.5">
@@ -5776,7 +5794,7 @@
         <v>37</v>
       </c>
       <c r="D106" s="16" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="E106" s="16" t="s">
         <v>62</v>
@@ -5797,7 +5815,7 @@
         <v>115</v>
       </c>
       <c r="K106" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="19.5">
@@ -5832,7 +5850,7 @@
         <v>115</v>
       </c>
       <c r="K107" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="19.5">
@@ -5867,7 +5885,7 @@
         <v>115</v>
       </c>
       <c r="K108" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="19.5">
@@ -5881,7 +5899,7 @@
         <v>40</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="E109" s="16" t="s">
         <v>62</v>
@@ -5902,7 +5920,7 @@
         <v>115</v>
       </c>
       <c r="K109" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="19.5">
@@ -5937,7 +5955,7 @@
         <v>115</v>
       </c>
       <c r="K110" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="19.5">
@@ -5951,7 +5969,7 @@
         <v>40</v>
       </c>
       <c r="D111" s="16" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="E111" s="16" t="s">
         <v>62</v>
@@ -5972,7 +5990,7 @@
         <v>115</v>
       </c>
       <c r="K111" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="19.5">
@@ -5986,7 +6004,7 @@
         <v>40</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="E112" s="16" t="s">
         <v>62</v>
@@ -6007,7 +6025,7 @@
         <v>115</v>
       </c>
       <c r="K112" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="19.5">
@@ -6042,7 +6060,7 @@
         <v>115</v>
       </c>
       <c r="K113" s="18" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="19.5">
@@ -6077,7 +6095,7 @@
         <v>115</v>
       </c>
       <c r="K114" s="18" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="19.5">
@@ -6112,7 +6130,7 @@
         <v>115</v>
       </c>
       <c r="K115" s="18" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="19.5">
@@ -6147,7 +6165,7 @@
         <v>115</v>
       </c>
       <c r="K116" s="18" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="19.5">
@@ -6182,7 +6200,7 @@
         <v>115</v>
       </c>
       <c r="K117" s="18" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="19.5">
@@ -6217,7 +6235,7 @@
         <v>115</v>
       </c>
       <c r="K118" s="18" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="19.5">
@@ -6252,7 +6270,7 @@
         <v>115</v>
       </c>
       <c r="K119" s="18" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="19.5">
@@ -6287,7 +6305,7 @@
         <v>115</v>
       </c>
       <c r="K120" s="18" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="19.5">
@@ -6322,7 +6340,7 @@
         <v>115</v>
       </c>
       <c r="K121" s="18" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="19.5">
@@ -6357,7 +6375,7 @@
         <v>115</v>
       </c>
       <c r="K122" s="18" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="19.5">
@@ -6392,7 +6410,7 @@
         <v>115</v>
       </c>
       <c r="K123" s="18" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="19.5">
@@ -6427,7 +6445,7 @@
         <v>115</v>
       </c>
       <c r="K124" s="18" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="19.5">
@@ -6462,7 +6480,7 @@
         <v>115</v>
       </c>
       <c r="K125" s="18" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="19.5">
@@ -6497,7 +6515,7 @@
         <v>115</v>
       </c>
       <c r="K126" s="18" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="19.5">
@@ -6505,7 +6523,7 @@
         <v>4</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C127" s="16" t="s">
         <v>37</v>
@@ -6532,7 +6550,7 @@
         <v>115</v>
       </c>
       <c r="K127" s="18" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="19.5">
@@ -6540,7 +6558,7 @@
         <v>4</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C128" s="16" t="s">
         <v>37</v>
@@ -6567,7 +6585,7 @@
         <v>115</v>
       </c>
       <c r="K128" s="18" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="19.5">
@@ -6602,7 +6620,7 @@
         <v>115</v>
       </c>
       <c r="K129" s="18" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="19.5">
@@ -6637,7 +6655,7 @@
         <v>115</v>
       </c>
       <c r="K130" s="18" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5">
@@ -6672,7 +6690,7 @@
         <v>115</v>
       </c>
       <c r="K131" s="18" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5">
@@ -6707,7 +6725,7 @@
         <v>115</v>
       </c>
       <c r="K132" s="18" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5">
@@ -6715,7 +6733,7 @@
         <v>22</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C133" s="16" t="s">
         <v>37</v>
@@ -6742,7 +6760,7 @@
         <v>115</v>
       </c>
       <c r="K133" s="18" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5">
@@ -6750,7 +6768,7 @@
         <v>22</v>
       </c>
       <c r="B134" s="16" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C134" s="16" t="s">
         <v>37</v>
@@ -6777,7 +6795,7 @@
         <v>115</v>
       </c>
       <c r="K134" s="18" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5">
@@ -6812,7 +6830,7 @@
         <v>115</v>
       </c>
       <c r="K135" s="18" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="19.5">
@@ -6847,7 +6865,7 @@
         <v>115</v>
       </c>
       <c r="K136" s="18" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5">
@@ -6882,7 +6900,7 @@
         <v>115</v>
       </c>
       <c r="K137" s="18" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="19.5">
@@ -6917,7 +6935,7 @@
         <v>115</v>
       </c>
       <c r="K138" s="18" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5">
@@ -6952,7 +6970,7 @@
         <v>115</v>
       </c>
       <c r="K139" s="18" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="19.5">
@@ -6987,7 +7005,7 @@
         <v>115</v>
       </c>
       <c r="K140" s="18" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="19.5">
@@ -6995,7 +7013,7 @@
         <v>10</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C141" s="16" t="s">
         <v>43</v>
@@ -7022,7 +7040,7 @@
         <v>115</v>
       </c>
       <c r="K141" s="18" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="19.5">
@@ -7030,7 +7048,7 @@
         <v>10</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C142" s="16" t="s">
         <v>43</v>
@@ -7057,7 +7075,7 @@
         <v>115</v>
       </c>
       <c r="K142" s="18" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="19.5">
@@ -7065,7 +7083,7 @@
         <v>10</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C143" s="16" t="s">
         <v>43</v>
@@ -7092,7 +7110,7 @@
         <v>115</v>
       </c>
       <c r="K143" s="18" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="19.5">
@@ -7127,7 +7145,7 @@
         <v>115</v>
       </c>
       <c r="K144" s="18" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="19.5">
@@ -7162,7 +7180,7 @@
         <v>115</v>
       </c>
       <c r="K145" s="18" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="19.5">
@@ -7197,7 +7215,7 @@
         <v>115</v>
       </c>
       <c r="K146" s="18" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="19.5">
@@ -7232,7 +7250,7 @@
         <v>115</v>
       </c>
       <c r="K147" s="18" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="19.5">
@@ -7267,7 +7285,7 @@
         <v>115</v>
       </c>
       <c r="K148" s="18" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="19.5">
@@ -7302,7 +7320,7 @@
         <v>115</v>
       </c>
       <c r="K149" s="18" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="19.5">
@@ -7337,7 +7355,7 @@
         <v>115</v>
       </c>
       <c r="K150" s="18" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="19.5">
@@ -7372,7 +7390,7 @@
         <v>115</v>
       </c>
       <c r="K151" s="18" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="19.5">
@@ -7392,7 +7410,7 @@
         <v>62</v>
       </c>
       <c r="F152" s="16" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="G152" s="16" t="s">
         <v>83</v>
@@ -7407,7 +7425,7 @@
         <v>115</v>
       </c>
       <c r="K152" s="18" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="19.5">
@@ -7442,7 +7460,7 @@
         <v>115</v>
       </c>
       <c r="K153" s="18" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="19.5">
@@ -7477,7 +7495,7 @@
         <v>115</v>
       </c>
       <c r="K154" s="18" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="19.5">
@@ -7512,7 +7530,7 @@
         <v>118</v>
       </c>
       <c r="K155" s="18" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="19.5">
@@ -7547,7 +7565,7 @@
         <v>121</v>
       </c>
       <c r="K156" s="18" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -7578,199 +7596,199 @@
         <v>2</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="409.6000000000001">
       <c r="A2" s="10" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="409.6000000000001">
       <c r="A3" s="10" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="409.6000000000001">
       <c r="A4" s="10" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="279.75">
       <c r="A5" s="10" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="294">
       <c r="A6" s="10" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="222">
       <c r="A7" s="10" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="409.6000000000001">
       <c r="A8" s="10" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="409.5">
       <c r="A9" s="10" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="E9" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="207.75">
       <c r="A10" s="10" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="279.75">
       <c r="A11" s="10" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
       <c r="A12" s="10" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -7783,7 +7801,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B244"/>
+  <dimension ref="A1:B250"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -7894,7 +7912,7 @@
         <v>134</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
@@ -7902,7 +7920,7 @@
         <v>135</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
@@ -7934,7 +7952,7 @@
         <v>139</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
@@ -7942,7 +7960,7 @@
         <v>140</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
@@ -7974,7 +7992,7 @@
         <v>144</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
@@ -7982,7 +8000,7 @@
         <v>145</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
@@ -8014,7 +8032,7 @@
         <v>149</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
@@ -8022,7 +8040,7 @@
         <v>150</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
@@ -8054,7 +8072,7 @@
         <v>154</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
@@ -8062,7 +8080,7 @@
         <v>155</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
@@ -8102,7 +8120,7 @@
         <v>160</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
@@ -8110,7 +8128,7 @@
         <v>161</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
@@ -8139,23 +8157,23 @@
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
       <c r="A44" s="8" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
       <c r="A45" s="8" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
       <c r="A46" s="8" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>26</v>
@@ -8163,7 +8181,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
       <c r="A47" s="8" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>26</v>
@@ -8174,7 +8192,7 @@
         <v>167</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
@@ -8182,7 +8200,7 @@
         <v>168</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
@@ -8214,7 +8232,7 @@
         <v>172</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
@@ -8222,7 +8240,7 @@
         <v>173</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
@@ -8254,7 +8272,7 @@
         <v>177</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
@@ -8262,7 +8280,7 @@
         <v>178</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
@@ -8294,7 +8312,7 @@
         <v>182</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
@@ -8302,7 +8320,7 @@
         <v>183</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
@@ -8326,7 +8344,7 @@
         <v>186</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
@@ -8334,7 +8352,7 @@
         <v>187</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
@@ -8374,7 +8392,7 @@
         <v>192</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
@@ -8382,7 +8400,7 @@
         <v>193</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
@@ -8422,7 +8440,7 @@
         <v>198</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5">
@@ -8430,7 +8448,7 @@
         <v>199</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5">
@@ -8494,7 +8512,7 @@
         <v>207</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5">
@@ -8502,7 +8520,7 @@
         <v>208</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5">
@@ -8542,7 +8560,7 @@
         <v>213</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5">
@@ -8550,7 +8568,7 @@
         <v>214</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5">
@@ -8558,7 +8576,7 @@
         <v>215</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5">
@@ -8566,7 +8584,7 @@
         <v>216</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5">
@@ -8582,7 +8600,7 @@
         <v>218</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5">
@@ -8590,7 +8608,7 @@
         <v>219</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5">
@@ -8598,7 +8616,7 @@
         <v>220</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5">
@@ -8606,7 +8624,7 @@
         <v>221</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5">
@@ -8654,7 +8672,7 @@
         <v>227</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="19.5">
@@ -8662,7 +8680,7 @@
         <v>228</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="19.5">
@@ -8670,7 +8688,7 @@
         <v>229</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="19.5">
@@ -8678,7 +8696,7 @@
         <v>230</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="19.5">
@@ -8702,7 +8720,7 @@
         <v>233</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="19.5">
@@ -8710,7 +8728,7 @@
         <v>234</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="19.5">
@@ -8718,7 +8736,7 @@
         <v>235</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="19.5">
@@ -8726,7 +8744,7 @@
         <v>236</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="19.5">
@@ -8766,7 +8784,7 @@
         <v>241</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="19.5">
@@ -8774,7 +8792,7 @@
         <v>242</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="19.5">
@@ -8782,7 +8800,7 @@
         <v>243</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="19.5">
@@ -8790,7 +8808,7 @@
         <v>244</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="19.5">
@@ -8814,7 +8832,7 @@
         <v>247</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="19.5">
@@ -8822,7 +8840,7 @@
         <v>248</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="19.5">
@@ -8830,7 +8848,7 @@
         <v>249</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5">
@@ -8838,7 +8856,7 @@
         <v>250</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5">
@@ -8870,7 +8888,7 @@
         <v>254</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="19.5">
@@ -8878,7 +8896,7 @@
         <v>255</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5">
@@ -8886,7 +8904,7 @@
         <v>256</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="19.5">
@@ -8894,7 +8912,7 @@
         <v>257</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5">
@@ -8915,39 +8933,39 @@
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="19.5">
       <c r="A141" s="8" t="s">
-        <v>182</v>
+        <v>260</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="19.5">
       <c r="A142" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="19.5">
       <c r="A143" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="19.5">
       <c r="A144" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="19.5">
       <c r="A145" s="8" t="s">
-        <v>263</v>
+        <v>184</v>
       </c>
       <c r="B145" s="8" t="s">
         <v>62</v>
@@ -8955,39 +8973,39 @@
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="19.5">
       <c r="A146" s="8" t="s">
-        <v>182</v>
+        <v>264</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="19.5">
       <c r="A147" s="8" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="19.5">
       <c r="A148" s="8" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="19.5">
       <c r="A149" s="8" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="19.5">
       <c r="A150" s="8" t="s">
-        <v>266</v>
+        <v>184</v>
       </c>
       <c r="B150" s="8" t="s">
         <v>73</v>
@@ -8995,10 +9013,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="19.5">
       <c r="A151" s="8" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="19.5">
@@ -9006,7 +9024,7 @@
         <v>268</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="19.5">
@@ -9014,7 +9032,7 @@
         <v>269</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="19.5">
@@ -9022,7 +9040,7 @@
         <v>270</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="19.5">
@@ -9046,7 +9064,7 @@
         <v>273</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="19.5">
@@ -9054,7 +9072,7 @@
         <v>274</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="19.5">
@@ -9062,7 +9080,7 @@
         <v>275</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="19.5">
@@ -9070,7 +9088,7 @@
         <v>276</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="19.5">
@@ -9086,7 +9104,7 @@
         <v>278</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="19.5">
@@ -9094,7 +9112,7 @@
         <v>279</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="19.5">
@@ -9102,7 +9120,7 @@
         <v>280</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="19.5">
@@ -9110,7 +9128,7 @@
         <v>281</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="19.5">
@@ -9126,7 +9144,7 @@
         <v>283</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="19.5">
@@ -9134,7 +9152,7 @@
         <v>284</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="19.5">
@@ -9142,7 +9160,7 @@
         <v>285</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="19.5">
@@ -9150,7 +9168,7 @@
         <v>286</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="19.5">
@@ -9166,7 +9184,7 @@
         <v>288</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="19.5">
@@ -9174,7 +9192,7 @@
         <v>289</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="19.5">
@@ -9182,7 +9200,7 @@
         <v>290</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="19.5">
@@ -9190,7 +9208,7 @@
         <v>291</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="19.5">
@@ -9206,7 +9224,7 @@
         <v>293</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="19.5">
@@ -9214,7 +9232,7 @@
         <v>294</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="19.5">
@@ -9222,7 +9240,7 @@
         <v>295</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="19.5">
@@ -9230,7 +9248,7 @@
         <v>296</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="19.5">
@@ -9246,7 +9264,7 @@
         <v>298</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="19.5">
@@ -9254,7 +9272,7 @@
         <v>299</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="19.5">
@@ -9262,7 +9280,7 @@
         <v>300</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="19.5">
@@ -9270,7 +9288,7 @@
         <v>301</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="19.5">
@@ -9286,7 +9304,7 @@
         <v>303</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="19.5">
@@ -9294,7 +9312,7 @@
         <v>304</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="19.5">
@@ -9302,7 +9320,7 @@
         <v>305</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="19.5">
@@ -9310,7 +9328,7 @@
         <v>306</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="19.5">
@@ -9326,7 +9344,7 @@
         <v>308</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="19.5">
@@ -9334,7 +9352,7 @@
         <v>309</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="19.5">
@@ -9342,7 +9360,7 @@
         <v>310</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="19.5">
@@ -9350,7 +9368,7 @@
         <v>311</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="19.5">
@@ -9366,7 +9384,7 @@
         <v>313</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="19.5">
@@ -9374,7 +9392,7 @@
         <v>314</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="19.5">
@@ -9382,7 +9400,7 @@
         <v>315</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="19.5">
@@ -9390,7 +9408,7 @@
         <v>316</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="19.5">
@@ -9406,7 +9424,7 @@
         <v>318</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="19.5">
@@ -9414,7 +9432,7 @@
         <v>319</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="19.5">
@@ -9422,7 +9440,7 @@
         <v>320</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="19.5">
@@ -9430,7 +9448,7 @@
         <v>321</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="19.5">
@@ -9438,7 +9456,7 @@
         <v>322</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="19.5">
@@ -9446,7 +9464,7 @@
         <v>323</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="19.5">
@@ -9454,7 +9472,7 @@
         <v>324</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="19.5">
@@ -9462,7 +9480,7 @@
         <v>325</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="19.5">
@@ -9478,7 +9496,7 @@
         <v>327</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="19.5">
@@ -9486,7 +9504,7 @@
         <v>328</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="19.5">
@@ -9494,7 +9512,7 @@
         <v>329</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="19.5">
@@ -9502,7 +9520,7 @@
         <v>330</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="19.5">
@@ -9510,7 +9528,7 @@
         <v>331</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="19.5">
@@ -9518,7 +9536,7 @@
         <v>332</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="19.5">
@@ -9526,7 +9544,7 @@
         <v>333</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="19.5">
@@ -9534,7 +9552,7 @@
         <v>334</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="19.5">
@@ -9542,7 +9560,7 @@
         <v>335</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="19.5">
@@ -9550,7 +9568,7 @@
         <v>336</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="19.5">
@@ -9558,7 +9576,7 @@
         <v>337</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="19.5">
@@ -9566,7 +9584,7 @@
         <v>338</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="19.5">
@@ -9574,7 +9592,7 @@
         <v>339</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="19.5">
@@ -9582,7 +9600,7 @@
         <v>340</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="19.5">
@@ -9590,7 +9608,7 @@
         <v>341</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="19.5">
@@ -9598,7 +9616,7 @@
         <v>342</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="19.5">
@@ -9606,7 +9624,7 @@
         <v>343</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="19.5">
@@ -9614,7 +9632,7 @@
         <v>344</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="19.5">
@@ -9622,7 +9640,7 @@
         <v>345</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="19.5">
@@ -9630,7 +9648,7 @@
         <v>346</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="19.5">
@@ -9638,7 +9656,7 @@
         <v>347</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="19.5">
@@ -9646,7 +9664,7 @@
         <v>348</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="19.5">
@@ -9654,7 +9672,7 @@
         <v>349</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="19.5">
@@ -9662,7 +9680,7 @@
         <v>350</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="19.5">
@@ -9670,7 +9688,7 @@
         <v>351</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="19.5">
@@ -9678,7 +9696,7 @@
         <v>352</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="19.5">
@@ -9686,7 +9704,7 @@
         <v>353</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="19.5">
@@ -9694,7 +9712,7 @@
         <v>354</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="19.5">
@@ -9702,7 +9720,7 @@
         <v>355</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="19.5">
@@ -9710,7 +9728,7 @@
         <v>356</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="19.5">
@@ -9718,7 +9736,7 @@
         <v>357</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="19.5">
@@ -9742,6 +9760,54 @@
         <v>360</v>
       </c>
       <c r="B244" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="19.5">
+      <c r="A245" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="B245" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="19.5">
+      <c r="A246" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B246" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="19.5">
+      <c r="A247" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B247" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="19.5">
+      <c r="A248" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="B248" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="19.5">
+      <c r="A249" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="B249" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="19.5">
+      <c r="A250" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="B250" s="8" t="s">
         <v>121</v>
       </c>
     </row>
